--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>450g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180/斤？90/斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鲜活度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正蟹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +229,106 @@
   </si>
   <si>
     <t>活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱿鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一斤3/4只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一斤多/只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450g, 6两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/斤、22/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180/斤、280/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蛎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6两/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/袋、30/2袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,15 +679,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -625,247 +715,386 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43370</v>
+        <v>335541</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43371</v>
+        <v>335541</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>335541</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>335541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>335541</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43348</v>
+        <v>43371</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>335541</v>
+        <v>43371</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>335541</v>
+        <v>43371</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>335541</v>
+        <v>43371</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>335541</v>
+        <v>43371</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>335541</v>
+        <v>43371</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43373</v>
+      </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43380</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,22 @@
   </si>
   <si>
     <t>说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨鱼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25斤/只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120/斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1113,23 @@
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>墨鱼干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +341,26 @@
   </si>
   <si>
     <t>120/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -880,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,16 +1134,33 @@
         <v>43385</v>
       </c>
       <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>80</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>81</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43390</v>
+      </c>
+      <c r="B30" t="s">
         <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -320,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6两/袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16/袋、30/2袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>墨鱼干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +353,14 @@
   </si>
   <si>
     <t>20/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6两/袋;8/9两一袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/袋、30/2袋;28/袋、50/2袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,15 +714,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,16 +1134,16 @@
         <v>43385</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,16 +1151,16 @@
         <v>43390</v>
       </c>
       <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,42 @@
   </si>
   <si>
     <t>16/袋、30/2袋;28/袋、50/2袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑雕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5斤/只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红母鲟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158/斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1199,43 @@
         <v>83</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -750,8 +753,8 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1240,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/海鲜价格表.xlsx
+++ b/public/海鲜价格表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,18 +299,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45/斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>450g, 6两</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25/斤、22/斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180/斤、280/斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +392,38 @@
   </si>
   <si>
     <t>158/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/斤、22/斤;18/斤、30/2斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45/斤、78/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖嘴春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43/斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/斤、10/2斤、6斤起送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>245/斤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -819,6 +843,9 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -904,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,6 +1006,9 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1068,16 +1098,16 @@
         <v>43373</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,8 +1123,11 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,7 +1161,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,16 +1206,16 @@
         <v>43385</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,16 +1223,16 @@
         <v>43390</v>
       </c>
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,19 +1240,19 @@
         <v>43407</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>89</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,16 +1260,33 @@
         <v>43409</v>
       </c>
       <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
